--- a/app/Http/Python/excel/Thursday.xlsx
+++ b/app/Http/Python/excel/Thursday.xlsx
@@ -40,14 +40,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Extensive Reading I </t>
-  </si>
-  <si>
     <t>ｳｪｲﾝ ﾍﾟﾆﾝﾄﾝ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">情報演習・基礎（国際・児童） </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>情報演習・基礎（国際・児童）</t>
@@ -64,16 +57,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Extensive Reading II</t>
-  </si>
-  <si>
     <t>情報総合I（英語・国際・児童）</t>
   </si>
   <si>
-    <t>Unified English IA2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>簿記I</t>
   </si>
   <si>
@@ -85,9 +71,6 @@
   <si>
     <t>心理学</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unified English IIA2</t>
   </si>
   <si>
     <t>中国語b</t>
@@ -149,94 +132,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中国語I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基礎演習I（大沼）</t>
   </si>
   <si>
-    <t>基礎演習I（謝）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基礎演習I（呉）</t>
   </si>
   <si>
-    <t>基礎演習I（張）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基礎演習I（西舘）</t>
   </si>
   <si>
     <t>基礎演習I（鈴木）</t>
   </si>
   <si>
-    <t>基礎演習I（岡井）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基礎演習I（大嶋）</t>
   </si>
   <si>
-    <t>基礎演習I（奥田）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基礎演習I（松本）</t>
   </si>
   <si>
     <t>基礎演習I（野口）</t>
   </si>
   <si>
-    <t>Unified English IA1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Written English IA2</t>
-  </si>
-  <si>
-    <t>Written English IB4</t>
-  </si>
-  <si>
-    <t>経済学概論IA（経済学入門IA）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経済学概論IB（経済学入門IB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日本語ライティング（日本語V）</t>
   </si>
   <si>
-    <t>Unified English IIA1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Written English IIA2</t>
-  </si>
-  <si>
-    <t>Written English IIB4</t>
-  </si>
-  <si>
-    <t>経済学概論IIA（経済学入門IIA）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経済学概論IIB（経済学入門IIB）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社会学</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日本語会話（日本語VI）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小林　恵美</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -292,43 +215,15 @@
     <t>基礎演習II（謝）</t>
   </si>
   <si>
-    <t>基礎演習II（呉）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基礎演習II（張）</t>
   </si>
   <si>
     <t>基礎演習II（西舘）</t>
   </si>
   <si>
-    <t>基礎演習II（鈴木）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基礎演習II（岡井）</t>
   </si>
   <si>
-    <t>基礎演習II（大嶋）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II（奥田）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II（松本）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎演習II（野口）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Remedial Grammar（英語のみ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大沼　久夫</t>
   </si>
   <si>
@@ -399,26 +294,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Unified English IF3</t>
-  </si>
-  <si>
     <t>CALL IB</t>
   </si>
   <si>
     <t>憲法I</t>
   </si>
   <si>
-    <t>Unified English IIF3</t>
-  </si>
-  <si>
-    <t>CALL IIB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>憲法II</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初等家庭概説</t>
   </si>
   <si>
@@ -426,10 +307,6 @@
   </si>
   <si>
     <t>Glocal Honors演習II</t>
-  </si>
-  <si>
-    <t>Regional Project Work A</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">奥山　龍一 </t>
@@ -449,27 +326,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>英語Reading IA2</t>
-  </si>
-  <si>
     <t>言語学I</t>
   </si>
   <si>
-    <t>英語Reading IIA2</t>
-  </si>
-  <si>
     <t>言語学II</t>
   </si>
   <si>
-    <t>米文学論（米文学）</t>
-  </si>
-  <si>
     <t>総合英語IB5</t>
   </si>
   <si>
-    <t>Academic Writing IA1</t>
-  </si>
-  <si>
     <t>イスラーム入門</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -478,10 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウェブデザインI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>群馬の人と思想</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,10 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Academic Writing IIA1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>総合科目：人間を考える</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -505,10 +362,6 @@
     <t>初等体育科教育法</t>
   </si>
   <si>
-    <t xml:space="preserve">ウェブデザインII </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大森　昭生</t>
   </si>
   <si>
@@ -537,21 +390,6 @@
     <t>園田　敦子</t>
   </si>
   <si>
-    <t>総合英語IIB5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOEIC Listening IA（英語のみ）</t>
-  </si>
-  <si>
-    <t>比較文学・文化I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経営学I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>文化人類学</t>
   </si>
   <si>
@@ -588,10 +426,6 @@
   </si>
   <si>
     <t>村山　賢哉</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOEIC Listening IIA（英語のみ）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -619,13 +453,6 @@
     <t>平岡　さつき</t>
   </si>
   <si>
-    <t>Business English IA</t>
-  </si>
-  <si>
-    <t>Business English IB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ビジネスコミュニケーション演習</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -633,21 +460,6 @@
     <t>教育と人間「教育原理I」（中等）</t>
   </si>
   <si>
-    <t>期 Business English IIA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Business English IIB</t>
-  </si>
-  <si>
-    <t>教育と社会「教育原理II」（中等）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>World Englishes I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>国際関係の歴史を知る</t>
   </si>
   <si>
@@ -655,15 +467,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日本語III</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初等家庭科教育法</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>World Englishes II</t>
   </si>
   <si>
     <t>日本語IV</t>
@@ -683,23 +488,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Problem Based Training I</t>
-  </si>
-  <si>
     <t>Glocal Honors演習III</t>
   </si>
   <si>
-    <t>Problem Based Training II</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Glocal Honors演習IV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Regional Project Work B</t>
-  </si>
-  <si>
     <t xml:space="preserve">謝　志海 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -716,10 +507,6 @@
     <t>CALL IVA（英語のみ）</t>
   </si>
   <si>
-    <t>社会科・地歴科教育法II</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ｳｪｲﾝ ﾍﾟﾆﾝﾄﾝ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -727,22 +514,10 @@
     <t>矢島　宣弘</t>
   </si>
   <si>
-    <t>Tourism English I（英語のみ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>翻訳・通訳演習I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム開発</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>課題演習I（大嶋）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>課題演習I（張）</t>
   </si>
   <si>
@@ -752,13 +527,6 @@
     <t>課題演習I（岸）</t>
   </si>
   <si>
-    <t>Tourism English II（英語のみ）</t>
-  </si>
-  <si>
-    <t>翻訳・通訳演習II</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>経営システム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -769,10 +537,6 @@
     <t>課題演習II（張）</t>
   </si>
   <si>
-    <t>課題演習II（後藤）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>課題演習II（岸）</t>
   </si>
   <si>
@@ -799,10 +563,6 @@
     <t>課題演習I（平田）</t>
   </si>
   <si>
-    <t>課題演習I（村山）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>課題演習I（小柏）</t>
   </si>
   <si>
@@ -815,10 +575,6 @@
     <t>CALL IVB（英語のみ）</t>
   </si>
   <si>
-    <t>English through Drama</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特別活動・学級経営論（中等）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -832,33 +588,14 @@
     <t>課題演習II（平田）</t>
   </si>
   <si>
-    <t>課題演習II（村山）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習II（小柏）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>課題演習II（神宮）</t>
   </si>
   <si>
-    <t>課題演習II（西川）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>平田　郁美</t>
   </si>
   <si>
     <t>平田　郁美</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> キャリア・プランニングIV</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Regional Project Work C</t>
   </si>
   <si>
     <t>奥山　龍一</t>
@@ -871,22 +608,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Advanced Reading IB（英語のみ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Advanced Reading IIB（英語のみ）</t>
-  </si>
-  <si>
     <t>卒業研究（大嶋）（前期のみ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Advanced Listening IIB（英語のみ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Advanced Listening IB（英語のみ）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -944,6 +666,233 @@
     <rPh sb="4" eb="5">
       <t>ツキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米文学論（米文学）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CALL IIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtensIve ReadIng I </t>
+  </si>
+  <si>
+    <t>UnIfIed EnglIsh IA2</t>
+  </si>
+  <si>
+    <t>UnIfIed EnglIsh IA1</t>
+  </si>
+  <si>
+    <t>中国語I</t>
+  </si>
+  <si>
+    <t>UnIfIed EnglIsh IF3</t>
+  </si>
+  <si>
+    <t>WrItten EnglIsh IA2</t>
+  </si>
+  <si>
+    <t>WrItten EnglIsh IB4</t>
+  </si>
+  <si>
+    <t>基礎演習I（謝）</t>
+  </si>
+  <si>
+    <t>RegIonal Project Work A</t>
+  </si>
+  <si>
+    <t>ExtensIve ReadIng II</t>
+  </si>
+  <si>
+    <t>UnIfIed EnglIsh IIF3</t>
+  </si>
+  <si>
+    <t>Problem Based TraInIng I</t>
+  </si>
+  <si>
+    <t>経済学概論IA（経済学入門IA）</t>
+  </si>
+  <si>
+    <t>基礎演習I（張）</t>
+  </si>
+  <si>
+    <t>英語ReadIng IA2</t>
+  </si>
+  <si>
+    <t>UnIfIed EnglIsh IIA2</t>
+  </si>
+  <si>
+    <t>経済学概論IB（経済学入門IB）</t>
+  </si>
+  <si>
+    <t>憲法II</t>
+  </si>
+  <si>
+    <t>Problem Based TraInIng II</t>
+  </si>
+  <si>
+    <t>Glocal Honors演習IV</t>
+  </si>
+  <si>
+    <t>英語ReadIng IIA2</t>
+  </si>
+  <si>
+    <t>UnIfIed EnglIsh IIA1</t>
+  </si>
+  <si>
+    <t>基礎演習I（岡井）</t>
+  </si>
+  <si>
+    <t>World EnglIshes I</t>
+  </si>
+  <si>
+    <t>RegIonal Project Work B</t>
+  </si>
+  <si>
+    <t>WrItten EnglIsh IIA2</t>
+  </si>
+  <si>
+    <t>RegIonal Project Work C</t>
+  </si>
+  <si>
+    <t>WrItten EnglIsh IIB4</t>
+  </si>
+  <si>
+    <t>基礎演習I（奥田）</t>
+  </si>
+  <si>
+    <t>経済学概論IIA（経済学入門IIA）</t>
+  </si>
+  <si>
+    <t>日本語III</t>
+  </si>
+  <si>
+    <t>AcademIc WrItIng IA1</t>
+  </si>
+  <si>
+    <t>経済学概論IIB（経済学入門IIB）</t>
+  </si>
+  <si>
+    <t>World EnglIshes II</t>
+  </si>
+  <si>
+    <t>日本語会話（日本語VI）</t>
+  </si>
+  <si>
+    <t>ウェブデザインI</t>
+  </si>
+  <si>
+    <t>TOEIC LIstenIng IA（英語のみ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> キャリア・プランニングIV</t>
+  </si>
+  <si>
+    <t>比較文学・文化I</t>
+  </si>
+  <si>
+    <t>経営学I</t>
+  </si>
+  <si>
+    <t>基礎演習II（呉）</t>
+  </si>
+  <si>
+    <t>総合英語IIB5</t>
+  </si>
+  <si>
+    <t>AcademIc WrItIng IIA1</t>
+  </si>
+  <si>
+    <t>TOEIC LIstenIng IIA（英語のみ）</t>
+  </si>
+  <si>
+    <t>基礎演習II（鈴木）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウェブデザインII </t>
+  </si>
+  <si>
+    <t>基礎演習II（大嶋）</t>
+  </si>
+  <si>
+    <t>基礎演習II（奥田）</t>
+  </si>
+  <si>
+    <t>TourIsm EnglIsh I（英語のみ）</t>
+  </si>
+  <si>
+    <t>基礎演習II（松本）</t>
+  </si>
+  <si>
+    <t>翻訳・通訳演習I</t>
+  </si>
+  <si>
+    <t>基礎演習II（野口）</t>
+  </si>
+  <si>
+    <t>RemedIal Grammar（英語のみ）</t>
+  </si>
+  <si>
+    <t>課題演習I（大嶋）</t>
+  </si>
+  <si>
+    <t>BusIness EnglIsh IA</t>
+  </si>
+  <si>
+    <t>社会科・地歴科教育法II</t>
+  </si>
+  <si>
+    <t>BusIness EnglIsh IB</t>
+  </si>
+  <si>
+    <t>Advanced ReadIng IB（英語のみ）</t>
+  </si>
+  <si>
+    <t>Advanced ReadIng IIB（英語のみ）</t>
+  </si>
+  <si>
+    <t>TourIsm EnglIsh II（英語のみ）</t>
+  </si>
+  <si>
+    <t>期 BusIness EnglIsh IIA</t>
+  </si>
+  <si>
+    <t>翻訳・通訳演習II</t>
+  </si>
+  <si>
+    <t>BusIness EnglIsh IIB</t>
+  </si>
+  <si>
+    <t>教育と社会「教育原理II」（中等）</t>
+  </si>
+  <si>
+    <t>課題演習II（後藤）</t>
+  </si>
+  <si>
+    <t>課題演習I（村山）</t>
+  </si>
+  <si>
+    <t>Advanced LIstenIng IB（英語のみ）</t>
+  </si>
+  <si>
+    <t>Advanced LIstenIng IIB（英語のみ）</t>
+  </si>
+  <si>
+    <t>EnglIsh through Drama</t>
+  </si>
+  <si>
+    <t>課題演習II（村山）</t>
+  </si>
+  <si>
+    <t>課題演習II（小柏）</t>
+  </si>
+  <si>
+    <t>課題演習II（西川）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情報演習・基礎（国際・児童） </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1322,7 +1271,7 @@
   <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1343,10 +1292,10 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1358,10 +1307,10 @@
         <v>3301</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1373,10 +1322,10 @@
         <v>1303</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -1388,10 +1337,10 @@
         <v>1302</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
@@ -1403,10 +1352,10 @@
         <v>1206</v>
       </c>
       <c r="U1" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="V1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="W1" t="s">
         <v>0</v>
@@ -1418,10 +1367,10 @@
         <v>4203</v>
       </c>
       <c r="Z1" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AA1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="AB1" t="s">
         <v>0</v>
@@ -1435,10 +1384,10 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1450,10 +1399,10 @@
         <v>2301</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -1465,10 +1414,10 @@
         <v>1213</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -1480,10 +1429,10 @@
         <v>2413</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
         <v>0</v>
@@ -1495,10 +1444,10 @@
         <v>1313</v>
       </c>
       <c r="U2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" t="s">
         <v>0</v>
@@ -1510,16 +1459,16 @@
         <v>1403</v>
       </c>
       <c r="Z2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="AB2" t="s">
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD2">
         <v>4203</v>
@@ -1527,10 +1476,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1542,10 +1491,10 @@
         <v>2302</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -1557,10 +1506,10 @@
         <v>1205</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
@@ -1572,10 +1521,10 @@
         <v>1201</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="Q3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
         <v>0</v>
@@ -1587,10 +1536,10 @@
         <v>4204</v>
       </c>
       <c r="U3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s">
         <v>0</v>
@@ -1602,16 +1551,16 @@
         <v>1101</v>
       </c>
       <c r="Z3" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="AA3" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s">
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AD3">
         <v>1311</v>
@@ -1619,25 +1568,25 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>3301</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -1649,10 +1598,10 @@
         <v>4206</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>0</v>
@@ -1664,10 +1613,10 @@
         <v>2401</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
@@ -1679,28 +1628,28 @@
         <v>4203</v>
       </c>
       <c r="U4" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="W4" t="s">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <v>4203</v>
       </c>
       <c r="Z4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="AA4" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="AB4" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s">
         <v>1</v>
@@ -1711,25 +1660,25 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>2301</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -1741,10 +1690,10 @@
         <v>3101</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
         <v>0</v>
@@ -1756,10 +1705,10 @@
         <v>1206</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
@@ -1771,28 +1720,28 @@
         <v>1312</v>
       </c>
       <c r="U5" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="V5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5" t="s">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y5">
         <v>1403</v>
       </c>
       <c r="Z5" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="AA5" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s">
         <v>1</v>
@@ -1803,13 +1752,13 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -1818,25 +1767,25 @@
         <v>1303</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>1303</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
         <v>0</v>
@@ -1848,10 +1797,10 @@
         <v>1101</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
@@ -1863,31 +1812,31 @@
         <v>1311</v>
       </c>
       <c r="U6" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="V6" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y6">
         <v>1201</v>
       </c>
       <c r="Z6" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AA6" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="AB6" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD6">
         <v>4201</v>
@@ -1895,13 +1844,13 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -1910,25 +1859,25 @@
         <v>1201</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>1213</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
         <v>0</v>
@@ -1940,10 +1889,10 @@
         <v>1313</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
@@ -1955,31 +1904,31 @@
         <v>1314</v>
       </c>
       <c r="U7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y7">
         <v>4204</v>
       </c>
       <c r="Z7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AA7" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD7">
         <v>4206</v>
@@ -1987,55 +1936,55 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1303</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>1101</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O8">
         <v>1302</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="Q8" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
@@ -2047,13 +1996,13 @@
         <v>1315</v>
       </c>
       <c r="U8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s">
         <v>1</v>
@@ -2062,16 +2011,16 @@
         <v>1203</v>
       </c>
       <c r="Z8" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="AD8">
         <v>1311</v>
@@ -2079,55 +2028,55 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>1201</v>
       </c>
       <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>4202</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>2413</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
@@ -2139,13 +2088,13 @@
         <v>4202</v>
       </c>
       <c r="U9" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s">
         <v>1</v>
@@ -2154,16 +2103,16 @@
         <v>4204</v>
       </c>
       <c r="Z9" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="AA9" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="AB9" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="AC9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AD9">
         <v>1311</v>
@@ -2171,55 +2120,55 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>2401</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>3101</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>1201</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="Q10" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
@@ -2231,13 +2180,13 @@
         <v>4121</v>
       </c>
       <c r="U10" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="V10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
         <v>1</v>
@@ -2248,13 +2197,13 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
         <v>1</v>
@@ -2263,25 +2212,25 @@
         <v>4203</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O11">
         <v>1206</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
@@ -2293,13 +2242,13 @@
         <v>1214</v>
       </c>
       <c r="U11" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s">
         <v>1</v>
@@ -2310,13 +2259,13 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
         <v>1</v>
@@ -2325,25 +2274,25 @@
         <v>2413</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O12">
         <v>1101</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
@@ -2355,13 +2304,13 @@
         <v>1213</v>
       </c>
       <c r="U12" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="V12" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s">
         <v>1</v>
@@ -2372,13 +2321,13 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
         <v>1</v>
@@ -2387,46 +2336,46 @@
         <v>1206</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>2401</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q13" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R13" t="s">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T13">
         <v>1206</v>
       </c>
       <c r="U13" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="W13" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y13">
         <v>1203</v>
@@ -2434,13 +2383,13 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
         <v>1</v>
@@ -2449,46 +2398,46 @@
         <v>2302</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="L14" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>1313</v>
       </c>
       <c r="P14" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="Q14" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U14" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="V14" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="W14" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y14">
         <v>1303</v>
@@ -2496,13 +2445,13 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
         <v>1</v>
@@ -2511,13 +2460,13 @@
         <v>2301</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
         <v>1</v>
@@ -2526,31 +2475,31 @@
         <v>1303</v>
       </c>
       <c r="P15" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="R15" t="s">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <v>1313</v>
       </c>
       <c r="U15" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="V15" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="W15" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="X15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y15">
         <v>2401</v>
@@ -2558,13 +2507,13 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
         <v>1</v>
@@ -2573,13 +2522,13 @@
         <v>1101</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
         <v>1</v>
@@ -2588,31 +2537,31 @@
         <v>3101</v>
       </c>
       <c r="P16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Q16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T16">
         <v>4204</v>
       </c>
       <c r="U16" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="V16" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="W16" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y16">
         <v>4112</v>
@@ -2620,13 +2569,13 @@
     </row>
     <row r="17" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
@@ -2635,13 +2584,13 @@
         <v>1401</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>1</v>
@@ -2650,31 +2599,31 @@
         <v>2302</v>
       </c>
       <c r="P17" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="Q17" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="R17" t="s">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>4203</v>
       </c>
       <c r="U17" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="V17" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="W17" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y17">
         <v>4201</v>
@@ -2682,28 +2631,28 @@
     </row>
     <row r="18" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>4203</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="M18" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>1</v>
@@ -2712,31 +2661,31 @@
         <v>1205</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="Q18" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T18">
         <v>1312</v>
       </c>
       <c r="U18" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="V18" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="W18" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y18">
         <v>2413</v>
@@ -2744,28 +2693,28 @@
     </row>
     <row r="19" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>2413</v>
       </c>
       <c r="K19" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
         <v>1</v>
@@ -2774,31 +2723,31 @@
         <v>4204</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="Q19" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="R19" t="s">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>1311</v>
       </c>
       <c r="U19" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="W19" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y19">
         <v>2412</v>
@@ -2806,61 +2755,61 @@
     </row>
     <row r="20" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>4204</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="M20" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O20">
         <v>1303</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="Q20" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="R20" t="s">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T20">
         <v>1314</v>
       </c>
       <c r="U20" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="V20" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="W20" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y20">
         <v>4111</v>
@@ -2868,61 +2817,61 @@
     </row>
     <row r="21" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>2302</v>
       </c>
       <c r="K21" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O21">
         <v>3101</v>
       </c>
       <c r="P21" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="Q21" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="R21" t="s">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T21">
         <v>1315</v>
       </c>
       <c r="U21" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="V21" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="W21" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y21">
         <v>2301</v>
@@ -2930,61 +2879,61 @@
     </row>
     <row r="22" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>2301</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="M22" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O22">
         <v>4204</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Q22" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="R22" t="s">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T22">
         <v>4202</v>
       </c>
       <c r="U22" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="V22" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="W22" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y22">
         <v>2411</v>
@@ -2992,61 +2941,61 @@
     </row>
     <row r="23" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>3301</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O23">
         <v>2302</v>
       </c>
       <c r="P23" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="Q23" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="R23" t="s">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T23">
         <v>4121</v>
       </c>
       <c r="U23" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="V23" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y23">
         <v>3301</v>
@@ -3054,13 +3003,13 @@
     </row>
     <row r="24" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
         <v>1</v>
@@ -3069,13 +3018,13 @@
         <v>1403</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N24" t="s">
         <v>1</v>
@@ -3084,31 +3033,31 @@
         <v>1304</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="Q24" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="R24" t="s">
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T24">
         <v>1214</v>
       </c>
       <c r="U24" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="V24" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y24">
         <v>1314</v>
@@ -3116,13 +3065,13 @@
     </row>
     <row r="25" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
         <v>1</v>
@@ -3131,13 +3080,13 @@
         <v>4201</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N25" t="s">
         <v>1</v>
@@ -3146,31 +3095,31 @@
         <v>1213</v>
       </c>
       <c r="P25" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="Q25" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="R25" t="s">
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T25">
         <v>1213</v>
       </c>
       <c r="U25" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="V25" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="X25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y25">
         <v>1302</v>
@@ -3178,13 +3127,13 @@
     </row>
     <row r="26" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
         <v>1</v>
@@ -3193,13 +3142,13 @@
         <v>1302</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="M26" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N26" t="s">
         <v>1</v>
@@ -3208,16 +3157,16 @@
         <v>2301</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="R26" t="s">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T26">
         <v>1203</v>
@@ -3225,28 +3174,28 @@
     </row>
     <row r="27" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>1403</v>
       </c>
       <c r="K27" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="M27" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N27" t="s">
         <v>1</v>
@@ -3255,13 +3204,13 @@
         <v>3301</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="Q27" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="R27" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s">
         <v>1</v>
@@ -3272,28 +3221,28 @@
     </row>
     <row r="28" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>1302</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N28" t="s">
         <v>1</v>
@@ -3302,13 +3251,13 @@
         <v>4211</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="Q28" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="R28" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s">
         <v>1</v>
@@ -3319,13 +3268,13 @@
     </row>
     <row r="29" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="H29" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="I29" t="s">
         <v>1</v>
@@ -3334,13 +3283,13 @@
         <v>1313</v>
       </c>
       <c r="K29" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="M29" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N29" t="s">
         <v>1</v>
@@ -3349,13 +3298,13 @@
         <v>4202</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="Q29" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="R29" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s">
         <v>1</v>
@@ -3366,28 +3315,28 @@
     </row>
     <row r="30" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="I30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>1313</v>
       </c>
       <c r="K30" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="M30" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N30" t="s">
         <v>1</v>
@@ -3396,13 +3345,13 @@
         <v>1315</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="Q30" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="R30" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s">
         <v>1</v>
@@ -3413,31 +3362,31 @@
     </row>
     <row r="31" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="M31" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O31">
         <v>1304</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="Q31" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="R31" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T31">
         <v>4206</v>
@@ -3445,31 +3394,31 @@
     </row>
     <row r="32" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="K32" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="M32" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O32">
         <v>1213</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="Q32" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="R32" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T32">
         <v>1304</v>
@@ -3477,31 +3426,31 @@
     </row>
     <row r="33" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K33" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="M33" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O33">
         <v>4112</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="Q33" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="R33" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T33">
         <v>2401</v>
@@ -3509,28 +3458,28 @@
     </row>
     <row r="34" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="M34" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O34">
         <v>3301</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="Q34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S34" t="s">
         <v>1</v>
@@ -3541,28 +3490,28 @@
     </row>
     <row r="35" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="L35" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="M35" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O35">
         <v>4211</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="Q35" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="R35" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S35" t="s">
         <v>1</v>
@@ -3573,28 +3522,28 @@
     </row>
     <row r="36" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K36" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="M36" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O36">
         <v>4202</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="Q36" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="R36" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S36" t="s">
         <v>1</v>
@@ -3605,28 +3554,28 @@
     </row>
     <row r="37" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K37" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="M37" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="N37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O37">
         <v>1315</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="Q37" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="R37" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S37" t="s">
         <v>1</v>
@@ -3637,28 +3586,28 @@
     </row>
     <row r="38" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K38" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="M38" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="N38" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O38">
         <v>3301</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="Q38" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="R38" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S38" t="s">
         <v>1</v>
@@ -3669,13 +3618,13 @@
     </row>
     <row r="39" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K39" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L39" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="M39" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="N39" t="s">
         <v>1</v>
@@ -3684,13 +3633,13 @@
         <v>4206</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="Q39" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="R39" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S39" t="s">
         <v>1</v>
@@ -3701,28 +3650,28 @@
     </row>
     <row r="40" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K40" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="M40" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="N40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O40">
         <v>4206</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="Q40" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="R40" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S40" t="s">
         <v>1</v>
@@ -3733,28 +3682,28 @@
     </row>
     <row r="41" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K41" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="M41" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="N41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O41">
         <v>4111</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="Q41" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="R41" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S41" t="s">
         <v>1</v>
@@ -3765,31 +3714,31 @@
     </row>
     <row r="42" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K42" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="L42" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="M42" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="N42" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O42">
         <v>4201</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="Q42" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="R42" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T42">
         <v>1403</v>
@@ -3797,31 +3746,31 @@
     </row>
     <row r="43" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K43" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="M43" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="N43" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O43">
         <v>4203</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="Q43" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="R43" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T43">
         <v>1201</v>
@@ -3829,16 +3778,16 @@
     </row>
     <row r="44" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P44" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="Q44" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="R44" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T44">
         <v>1301</v>
@@ -3846,16 +3795,16 @@
     </row>
     <row r="45" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P45" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="Q45" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="R45" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T45">
         <v>2412</v>
@@ -3863,16 +3812,16 @@
     </row>
     <row r="46" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P46" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="Q46" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T46">
         <v>4201</v>
@@ -3880,16 +3829,16 @@
     </row>
     <row r="47" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P47" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="Q47" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="R47" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T47">
         <v>2413</v>
@@ -3897,16 +3846,16 @@
     </row>
     <row r="48" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P48" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Q48" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="R48" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T48">
         <v>2411</v>
@@ -3914,16 +3863,16 @@
     </row>
     <row r="49" spans="16:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P49" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="Q49" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="R49" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T49">
         <v>4111</v>
@@ -3931,16 +3880,16 @@
     </row>
     <row r="50" spans="16:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P50" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="Q50" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="R50" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T50">
         <v>2301</v>
@@ -3948,16 +3897,16 @@
     </row>
     <row r="51" spans="16:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P51" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="Q51" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="R51" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="S51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T51">
         <v>3301</v>

--- a/app/Http/Python/excel/Thursday.xlsx
+++ b/app/Http/Python/excel/Thursday.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\library_vue\app\Http\Python\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\syllabus\app\Http\Python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,10 +43,6 @@
     <t>ｳｪｲﾝ ﾍﾟﾆﾝﾄﾝ</t>
   </si>
   <si>
-    <t>情報演習・基礎（国際・児童）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>三井　里恵</t>
   </si>
   <si>
@@ -55,9 +51,6 @@
       <t>コウキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>情報総合I（英語・国際・児童）</t>
   </si>
   <si>
     <t>簿記I</t>
@@ -132,30 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基礎演習I（大沼）</t>
-  </si>
-  <si>
-    <t>基礎演習I（呉）</t>
-  </si>
-  <si>
-    <t>基礎演習I（西舘）</t>
-  </si>
-  <si>
-    <t>基礎演習I（鈴木）</t>
-  </si>
-  <si>
-    <t>基礎演習I（大嶋）</t>
-  </si>
-  <si>
-    <t>基礎演習I（松本）</t>
-  </si>
-  <si>
-    <t>基礎演習I（野口）</t>
-  </si>
-  <si>
-    <t>日本語ライティング（日本語V）</t>
-  </si>
-  <si>
     <t>社会学</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,21 +176,6 @@
   </si>
   <si>
     <t>初等体育実技</t>
-  </si>
-  <si>
-    <t>基礎演習II（大沼）</t>
-  </si>
-  <si>
-    <t>基礎演習II（謝）</t>
-  </si>
-  <si>
-    <t>基礎演習II（張）</t>
-  </si>
-  <si>
-    <t>基礎演習II（西舘）</t>
-  </si>
-  <si>
-    <t>基礎演習II（岡井）</t>
   </si>
   <si>
     <t>大沼　久夫</t>
@@ -393,10 +347,6 @@
     <t>文化人類学</t>
   </si>
   <si>
-    <t>教育相談論（初等）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>国際移民論</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -457,9 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教育と人間「教育原理I」（中等）</t>
-  </si>
-  <si>
     <t>国際関係の歴史を知る</t>
   </si>
   <si>
@@ -495,18 +442,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CALL IIIA（英語のみ）</t>
-  </si>
-  <si>
     <t>英語科教育法II</t>
   </si>
   <si>
     <t>社会科・地歴科教育法I</t>
   </si>
   <si>
-    <t>CALL IVA（英語のみ）</t>
-  </si>
-  <si>
     <t>ｳｪｲﾝ ﾍﾟﾆﾝﾄﾝ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,28 +459,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>課題演習I（張）</t>
-  </si>
-  <si>
-    <t>課題演習I（後藤）</t>
-  </si>
-  <si>
-    <t>課題演習I（岸）</t>
-  </si>
-  <si>
     <t>経営システム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>課題演習II（大嶋）</t>
-  </si>
-  <si>
-    <t>課題演習II（張）</t>
-  </si>
-  <si>
-    <t>課題演習II（岸）</t>
-  </si>
-  <si>
     <t>神宮　貴子</t>
   </si>
   <si>
@@ -549,46 +472,6 @@
   <si>
     <t>後藤　さゆり</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CALL IIIB（英語のみ）</t>
-  </si>
-  <si>
-    <t>課題演習I（兼本）</t>
-  </si>
-  <si>
-    <t>課題演習I（杉沢）</t>
-  </si>
-  <si>
-    <t>課題演習I（平田）</t>
-  </si>
-  <si>
-    <t>課題演習I（小柏）</t>
-  </si>
-  <si>
-    <t>課題演習I（神宮）</t>
-  </si>
-  <si>
-    <t>課題演習I（西川）</t>
-  </si>
-  <si>
-    <t>CALL IVB（英語のみ）</t>
-  </si>
-  <si>
-    <t>特別活動・学級経営論（中等）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題演習II（兼本）</t>
-  </si>
-  <si>
-    <t>課題演習II（杉沢）</t>
-  </si>
-  <si>
-    <t>課題演習II（平田）</t>
-  </si>
-  <si>
-    <t>課題演習II（神宮）</t>
   </si>
   <si>
     <t>平田　郁美</t>
@@ -608,55 +491,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>卒業研究（大嶋）（前期のみ）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究（呉）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究（西舘）</t>
-  </si>
-  <si>
-    <t>卒業研究（大沼）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大沼　久夫</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究（大森）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究（杉沢）</t>
-  </si>
-  <si>
-    <t>卒業研究（平田）</t>
-  </si>
-  <si>
-    <t>卒業研究（兼本）</t>
-  </si>
-  <si>
-    <t>卒業研究（神宮）</t>
-  </si>
-  <si>
-    <t>卒業研究（小柏）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究（村山）</t>
-  </si>
-  <si>
-    <t>卒業研究（西川）</t>
-  </si>
-  <si>
-    <t>卒業研究（ﾃﾞﾛｰｼﾞｪ）</t>
-  </si>
-  <si>
-    <t>卒業研究（竹内）</t>
   </si>
   <si>
     <t>菊地　千木</t>
@@ -669,10 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>米文学論（米文学）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CALL IIB</t>
   </si>
   <si>
@@ -697,9 +529,6 @@
     <t>WrItten EnglIsh IB4</t>
   </si>
   <si>
-    <t>基礎演習I（謝）</t>
-  </si>
-  <si>
     <t>RegIonal Project Work A</t>
   </si>
   <si>
@@ -712,21 +541,12 @@
     <t>Problem Based TraInIng I</t>
   </si>
   <si>
-    <t>経済学概論IA（経済学入門IA）</t>
-  </si>
-  <si>
-    <t>基礎演習I（張）</t>
-  </si>
-  <si>
     <t>英語ReadIng IA2</t>
   </si>
   <si>
     <t>UnIfIed EnglIsh IIA2</t>
   </si>
   <si>
-    <t>経済学概論IB（経済学入門IB）</t>
-  </si>
-  <si>
     <t>憲法II</t>
   </si>
   <si>
@@ -742,9 +562,6 @@
     <t>UnIfIed EnglIsh IIA1</t>
   </si>
   <si>
-    <t>基礎演習I（岡井）</t>
-  </si>
-  <si>
     <t>World EnglIshes I</t>
   </si>
   <si>
@@ -760,33 +577,18 @@
     <t>WrItten EnglIsh IIB4</t>
   </si>
   <si>
-    <t>基礎演習I（奥田）</t>
-  </si>
-  <si>
-    <t>経済学概論IIA（経済学入門IIA）</t>
-  </si>
-  <si>
     <t>日本語III</t>
   </si>
   <si>
     <t>AcademIc WrItIng IA1</t>
   </si>
   <si>
-    <t>経済学概論IIB（経済学入門IIB）</t>
-  </si>
-  <si>
     <t>World EnglIshes II</t>
   </si>
   <si>
-    <t>日本語会話（日本語VI）</t>
-  </si>
-  <si>
     <t>ウェブデザインI</t>
   </si>
   <si>
-    <t>TOEIC LIstenIng IA（英語のみ）</t>
-  </si>
-  <si>
     <t xml:space="preserve"> キャリア・プランニングIV</t>
   </si>
   <si>
@@ -796,48 +598,18 @@
     <t>経営学I</t>
   </si>
   <si>
-    <t>基礎演習II（呉）</t>
-  </si>
-  <si>
     <t>総合英語IIB5</t>
   </si>
   <si>
     <t>AcademIc WrItIng IIA1</t>
   </si>
   <si>
-    <t>TOEIC LIstenIng IIA（英語のみ）</t>
-  </si>
-  <si>
-    <t>基礎演習II（鈴木）</t>
-  </si>
-  <si>
     <t xml:space="preserve">ウェブデザインII </t>
   </si>
   <si>
-    <t>基礎演習II（大嶋）</t>
-  </si>
-  <si>
-    <t>基礎演習II（奥田）</t>
-  </si>
-  <si>
-    <t>TourIsm EnglIsh I（英語のみ）</t>
-  </si>
-  <si>
-    <t>基礎演習II（松本）</t>
-  </si>
-  <si>
     <t>翻訳・通訳演習I</t>
   </si>
   <si>
-    <t>基礎演習II（野口）</t>
-  </si>
-  <si>
-    <t>RemedIal Grammar（英語のみ）</t>
-  </si>
-  <si>
-    <t>課題演習I（大嶋）</t>
-  </si>
-  <si>
     <t>BusIness EnglIsh IA</t>
   </si>
   <si>
@@ -847,15 +619,6 @@
     <t>BusIness EnglIsh IB</t>
   </si>
   <si>
-    <t>Advanced ReadIng IB（英語のみ）</t>
-  </si>
-  <si>
-    <t>Advanced ReadIng IIB（英語のみ）</t>
-  </si>
-  <si>
-    <t>TourIsm EnglIsh II（英語のみ）</t>
-  </si>
-  <si>
     <t>期 BusIness EnglIsh IIA</t>
   </si>
   <si>
@@ -865,35 +628,262 @@
     <t>BusIness EnglIsh IIB</t>
   </si>
   <si>
-    <t>教育と社会「教育原理II」（中等）</t>
-  </si>
-  <si>
-    <t>課題演習II（後藤）</t>
-  </si>
-  <si>
-    <t>課題演習I（村山）</t>
-  </si>
-  <si>
-    <t>Advanced LIstenIng IB（英語のみ）</t>
-  </si>
-  <si>
-    <t>Advanced LIstenIng IIB（英語のみ）</t>
-  </si>
-  <si>
     <t>EnglIsh through Drama</t>
   </si>
   <si>
-    <t>課題演習II（村山）</t>
-  </si>
-  <si>
-    <t>課題演習II（小柏）</t>
-  </si>
-  <si>
-    <t>課題演習II（西川）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">情報演習・基礎（国際・児童） </t>
-    <phoneticPr fontId="1"/>
+    <t>基礎演習II(鈴木)</t>
+  </si>
+  <si>
+    <t>情報演習・基礎(国際・児童)</t>
+  </si>
+  <si>
+    <t>基礎演習I(大沼)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情報演習・基礎(国際・児童) </t>
+  </si>
+  <si>
+    <t>基礎演習I(謝)</t>
+  </si>
+  <si>
+    <t>基礎演習I(呉)</t>
+  </si>
+  <si>
+    <t>情報総合I(英語・国際・児童)</t>
+  </si>
+  <si>
+    <t>経済学概論IA(経済学入門IA)</t>
+  </si>
+  <si>
+    <t>基礎演習I(張)</t>
+  </si>
+  <si>
+    <t>経済学概論IB(経済学入門IB)</t>
+  </si>
+  <si>
+    <t>基礎演習I(西舘)</t>
+  </si>
+  <si>
+    <t>日本語ライティング(日本語V)</t>
+  </si>
+  <si>
+    <t>基礎演習I(鈴木)</t>
+  </si>
+  <si>
+    <t>基礎演習I(岡井)</t>
+  </si>
+  <si>
+    <t>基礎演習I(大嶋)</t>
+  </si>
+  <si>
+    <t>米文学論(米文学)</t>
+  </si>
+  <si>
+    <t>基礎演習I(奥田)</t>
+  </si>
+  <si>
+    <t>経済学概論IIA(経済学入門IIA)</t>
+  </si>
+  <si>
+    <t>基礎演習I(松本)</t>
+  </si>
+  <si>
+    <t>経済学概論IIB(経済学入門IIB)</t>
+  </si>
+  <si>
+    <t>基礎演習I(野口)</t>
+  </si>
+  <si>
+    <t>日本語会話(日本語VI)</t>
+  </si>
+  <si>
+    <t>TOEIC LIstenIng IA(英語のみ)</t>
+  </si>
+  <si>
+    <t>基礎演習II(大沼)</t>
+  </si>
+  <si>
+    <t>基礎演習II(謝)</t>
+  </si>
+  <si>
+    <t>卒業研究(大森)</t>
+  </si>
+  <si>
+    <t>基礎演習II(呉)</t>
+  </si>
+  <si>
+    <t>卒業研究(杉沢)</t>
+  </si>
+  <si>
+    <t>基礎演習II(張)</t>
+  </si>
+  <si>
+    <t>卒業研究(平田)</t>
+  </si>
+  <si>
+    <t>教育相談論(初等)</t>
+  </si>
+  <si>
+    <t>基礎演習II(西舘)</t>
+  </si>
+  <si>
+    <t>卒業研究(兼本)</t>
+  </si>
+  <si>
+    <t>TOEIC LIstenIng IIA(英語のみ)</t>
+  </si>
+  <si>
+    <t>卒業研究(小柏)</t>
+  </si>
+  <si>
+    <t>基礎演習II(岡井)</t>
+  </si>
+  <si>
+    <t>卒業研究(神宮)</t>
+  </si>
+  <si>
+    <t>基礎演習II(大嶋)</t>
+  </si>
+  <si>
+    <t>卒業研究(村山)</t>
+  </si>
+  <si>
+    <t>基礎演習II(奥田)</t>
+  </si>
+  <si>
+    <t>卒業研究(西川)</t>
+  </si>
+  <si>
+    <t>CALL IIIA(英語のみ)</t>
+  </si>
+  <si>
+    <t>TourIsm EnglIsh I(英語のみ)</t>
+  </si>
+  <si>
+    <t>基礎演習II(松本)</t>
+  </si>
+  <si>
+    <t>卒業研究(ﾃﾞﾛｰｼﾞｪ)</t>
+  </si>
+  <si>
+    <t>基礎演習II(野口)</t>
+  </si>
+  <si>
+    <t>卒業研究(竹内)</t>
+  </si>
+  <si>
+    <t>RemedIal Grammar(英語のみ)</t>
+  </si>
+  <si>
+    <t>CALL IVA(英語のみ)</t>
+  </si>
+  <si>
+    <t>課題演習I(大嶋)</t>
+  </si>
+  <si>
+    <t>課題演習I(張)</t>
+  </si>
+  <si>
+    <t>Advanced ReadIng IB(英語のみ)</t>
+  </si>
+  <si>
+    <t>課題演習I(後藤)</t>
+  </si>
+  <si>
+    <t>Advanced ReadIng IIB(英語のみ)</t>
+  </si>
+  <si>
+    <t>課題演習I(岸)</t>
+  </si>
+  <si>
+    <t>教育と人間「教育原理I」(中等)</t>
+  </si>
+  <si>
+    <t>TourIsm EnglIsh II(英語のみ)</t>
+  </si>
+  <si>
+    <t>教育と社会「教育原理II」(中等)</t>
+  </si>
+  <si>
+    <t>課題演習II(大嶋)</t>
+  </si>
+  <si>
+    <t>CALL IIIB(英語のみ)</t>
+  </si>
+  <si>
+    <t>課題演習II(張)</t>
+  </si>
+  <si>
+    <t>課題演習I(兼本)</t>
+  </si>
+  <si>
+    <t>課題演習II(後藤)</t>
+  </si>
+  <si>
+    <t>課題演習I(杉沢)</t>
+  </si>
+  <si>
+    <t>課題演習II(岸)</t>
+  </si>
+  <si>
+    <t>課題演習I(平田)</t>
+  </si>
+  <si>
+    <t>卒業研究(大嶋)(前期のみ)</t>
+  </si>
+  <si>
+    <t>課題演習I(村山)</t>
+  </si>
+  <si>
+    <t>Advanced LIstenIng IB(英語のみ)</t>
+  </si>
+  <si>
+    <t>課題演習I(小柏)</t>
+  </si>
+  <si>
+    <t>Advanced LIstenIng IIB(英語のみ)</t>
+  </si>
+  <si>
+    <t>課題演習I(神宮)</t>
+  </si>
+  <si>
+    <t>卒業研究(大沼)</t>
+  </si>
+  <si>
+    <t>課題演習I(西川)</t>
+  </si>
+  <si>
+    <t>卒業研究(呉)</t>
+  </si>
+  <si>
+    <t>CALL IVB(英語のみ)</t>
+  </si>
+  <si>
+    <t>卒業研究(西舘)</t>
+  </si>
+  <si>
+    <t>特別活動・学級経営論(中等)</t>
+  </si>
+  <si>
+    <t>課題演習II(兼本)</t>
+  </si>
+  <si>
+    <t>課題演習II(杉沢)</t>
+  </si>
+  <si>
+    <t>課題演習II(平田)</t>
+  </si>
+  <si>
+    <t>課題演習II(村山)</t>
+  </si>
+  <si>
+    <t>課題演習II(小柏)</t>
+  </si>
+  <si>
+    <t>課題演習II(神宮)</t>
+  </si>
+  <si>
+    <t>課題演習II(西川)</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="63" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1292,7 +1282,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1307,10 +1297,10 @@
         <v>3301</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1322,10 +1312,10 @@
         <v>1303</v>
       </c>
       <c r="K1" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -1337,10 +1327,10 @@
         <v>1302</v>
       </c>
       <c r="P1" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="Q1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
@@ -1352,10 +1342,10 @@
         <v>1206</v>
       </c>
       <c r="U1" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="W1" t="s">
         <v>0</v>
@@ -1367,10 +1357,10 @@
         <v>4203</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AB1" t="s">
         <v>0</v>
@@ -1384,10 +1374,10 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1399,10 +1389,10 @@
         <v>2301</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -1414,10 +1404,10 @@
         <v>1213</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -1429,10 +1419,10 @@
         <v>2413</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
         <v>0</v>
@@ -1444,7 +1434,7 @@
         <v>1313</v>
       </c>
       <c r="U2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
         <v>2</v>
@@ -1459,16 +1449,16 @@
         <v>1403</v>
       </c>
       <c r="Z2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="AA2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AB2" t="s">
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD2">
         <v>4203</v>
@@ -1476,10 +1466,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1491,10 +1481,10 @@
         <v>2302</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -1506,10 +1496,10 @@
         <v>1205</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
@@ -1521,10 +1511,10 @@
         <v>1201</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
         <v>0</v>
@@ -1536,10 +1526,10 @@
         <v>4204</v>
       </c>
       <c r="U3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
         <v>0</v>
@@ -1551,16 +1541,16 @@
         <v>1101</v>
       </c>
       <c r="Z3" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="AA3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AB3" t="s">
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD3">
         <v>1311</v>
@@ -1568,7 +1558,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1577,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>3301</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -1598,10 +1588,10 @@
         <v>4206</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>0</v>
@@ -1613,10 +1603,10 @@
         <v>2401</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
@@ -1628,28 +1618,28 @@
         <v>4203</v>
       </c>
       <c r="U4" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="V4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="W4" t="s">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y4">
         <v>4203</v>
       </c>
       <c r="Z4" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="AA4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="AB4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AC4" t="s">
         <v>1</v>
@@ -1660,25 +1650,25 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>2301</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -1690,10 +1680,10 @@
         <v>3101</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
         <v>0</v>
@@ -1705,10 +1695,10 @@
         <v>1206</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
@@ -1720,7 +1710,7 @@
         <v>1312</v>
       </c>
       <c r="U5" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="V5" t="s">
         <v>2</v>
@@ -1729,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y5">
         <v>1403</v>
       </c>
       <c r="Z5" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AB5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AC5" t="s">
         <v>1</v>
@@ -1752,13 +1742,13 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -1767,25 +1757,25 @@
         <v>1303</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <v>1303</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
         <v>0</v>
@@ -1797,10 +1787,10 @@
         <v>1101</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
@@ -1812,31 +1802,31 @@
         <v>1311</v>
       </c>
       <c r="U6" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="W6" t="s">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y6">
         <v>1201</v>
       </c>
       <c r="Z6" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="AA6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="AB6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AC6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD6">
         <v>4201</v>
@@ -1844,13 +1834,13 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -1859,25 +1849,25 @@
         <v>1201</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>1213</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
         <v>0</v>
@@ -1889,10 +1879,10 @@
         <v>1313</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
@@ -1904,31 +1894,31 @@
         <v>1314</v>
       </c>
       <c r="U7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y7">
         <v>4204</v>
       </c>
       <c r="Z7" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="AA7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AB7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AC7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD7">
         <v>4206</v>
@@ -1936,55 +1926,55 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1303</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>1101</v>
       </c>
       <c r="K8" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <v>1302</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
@@ -1996,13 +1986,13 @@
         <v>1315</v>
       </c>
       <c r="U8" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="X8" t="s">
         <v>1</v>
@@ -2011,16 +2001,16 @@
         <v>1203</v>
       </c>
       <c r="Z8" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AB8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AC8" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="AD8">
         <v>1311</v>
@@ -2028,55 +2018,55 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1201</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>4202</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>2413</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
@@ -2088,13 +2078,13 @@
         <v>4202</v>
       </c>
       <c r="U9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="X9" t="s">
         <v>1</v>
@@ -2103,16 +2093,16 @@
         <v>4204</v>
       </c>
       <c r="Z9" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="AA9" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="AB9" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="AC9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD9">
         <v>1311</v>
@@ -2120,55 +2110,55 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>2401</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>3101</v>
       </c>
       <c r="K10" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O10">
         <v>1201</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
@@ -2180,13 +2170,13 @@
         <v>4121</v>
       </c>
       <c r="U10" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="V10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="X10" t="s">
         <v>1</v>
@@ -2197,13 +2187,13 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
         <v>1</v>
@@ -2212,25 +2202,25 @@
         <v>4203</v>
       </c>
       <c r="K11" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O11">
         <v>1206</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="Q11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
@@ -2242,13 +2232,13 @@
         <v>1214</v>
       </c>
       <c r="U11" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="V11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="X11" t="s">
         <v>1</v>
@@ -2259,13 +2249,13 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
         <v>1</v>
@@ -2274,25 +2264,25 @@
         <v>2413</v>
       </c>
       <c r="K12" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M12" t="s">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O12">
         <v>1101</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
@@ -2304,13 +2294,13 @@
         <v>1213</v>
       </c>
       <c r="U12" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="V12" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="W12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="X12" t="s">
         <v>1</v>
@@ -2321,13 +2311,13 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
         <v>1</v>
@@ -2336,46 +2326,46 @@
         <v>1206</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13">
         <v>2401</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13">
         <v>1206</v>
       </c>
       <c r="U13" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="X13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y13">
         <v>1203</v>
@@ -2383,13 +2373,13 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
         <v>1</v>
@@ -2398,46 +2388,46 @@
         <v>2302</v>
       </c>
       <c r="K14" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14">
         <v>1313</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q14" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="R14" t="s">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="V14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="W14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="X14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y14">
         <v>1303</v>
@@ -2445,13 +2435,13 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
         <v>1</v>
@@ -2460,13 +2450,13 @@
         <v>2301</v>
       </c>
       <c r="K15" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
         <v>1</v>
@@ -2475,31 +2465,31 @@
         <v>1303</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="R15" t="s">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15">
         <v>1313</v>
       </c>
       <c r="U15" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="V15" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="W15" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="X15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y15">
         <v>2401</v>
@@ -2507,13 +2497,13 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
         <v>1</v>
@@ -2522,13 +2512,13 @@
         <v>1101</v>
       </c>
       <c r="K16" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
         <v>1</v>
@@ -2537,31 +2527,31 @@
         <v>3101</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="R16" t="s">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16">
         <v>4204</v>
       </c>
       <c r="U16" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="V16" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y16">
         <v>4112</v>
@@ -2569,13 +2559,13 @@
     </row>
     <row r="17" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
@@ -2584,13 +2574,13 @@
         <v>1401</v>
       </c>
       <c r="K17" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N17" t="s">
         <v>1</v>
@@ -2599,31 +2589,31 @@
         <v>2302</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="R17" t="s">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17">
         <v>4203</v>
       </c>
       <c r="U17" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="V17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y17">
         <v>4201</v>
@@ -2631,28 +2621,28 @@
     </row>
     <row r="18" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>4203</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N18" t="s">
         <v>1</v>
@@ -2661,31 +2651,31 @@
         <v>1205</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="Q18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="R18" t="s">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T18">
         <v>1312</v>
       </c>
       <c r="U18" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="V18" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="W18" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y18">
         <v>2413</v>
@@ -2693,28 +2683,28 @@
     </row>
     <row r="19" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19">
         <v>2413</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N19" t="s">
         <v>1</v>
@@ -2723,31 +2713,31 @@
         <v>4204</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="Q19" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19">
         <v>1311</v>
       </c>
       <c r="U19" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="V19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="W19" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y19">
         <v>2412</v>
@@ -2755,61 +2745,61 @@
     </row>
     <row r="20" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>4204</v>
       </c>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20">
         <v>1303</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="Q20" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="R20" t="s">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20">
         <v>1314</v>
       </c>
       <c r="U20" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="V20" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y20">
         <v>4111</v>
@@ -2817,61 +2807,61 @@
     </row>
     <row r="21" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>2302</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21">
         <v>3101</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="Q21" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="R21" t="s">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21">
         <v>1315</v>
       </c>
       <c r="U21" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="V21" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="W21" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y21">
         <v>2301</v>
@@ -2879,61 +2869,61 @@
     </row>
     <row r="22" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>2301</v>
       </c>
       <c r="K22" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O22">
         <v>4204</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="Q22" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="R22" t="s">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22">
         <v>4202</v>
       </c>
       <c r="U22" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="V22" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="W22" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y22">
         <v>2411</v>
@@ -2941,61 +2931,61 @@
     </row>
     <row r="23" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>3301</v>
       </c>
       <c r="K23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="L23" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="M23" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O23">
         <v>2302</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="Q23" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="R23" t="s">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T23">
         <v>4121</v>
       </c>
       <c r="U23" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="V23" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="W23" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y23">
         <v>3301</v>
@@ -3003,13 +2993,13 @@
     </row>
     <row r="24" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
         <v>1</v>
@@ -3018,13 +3008,13 @@
         <v>1403</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N24" t="s">
         <v>1</v>
@@ -3033,31 +3023,31 @@
         <v>1304</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="Q24" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="R24" t="s">
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24">
         <v>1214</v>
       </c>
       <c r="U24" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="V24" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y24">
         <v>1314</v>
@@ -3065,13 +3055,13 @@
     </row>
     <row r="25" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
         <v>1</v>
@@ -3080,13 +3070,13 @@
         <v>4201</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M25" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N25" t="s">
         <v>1</v>
@@ -3095,31 +3085,31 @@
         <v>1213</v>
       </c>
       <c r="P25" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="Q25" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="R25" t="s">
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25">
         <v>1213</v>
       </c>
       <c r="U25" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="V25" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="W25" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="X25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y25">
         <v>1302</v>
@@ -3127,13 +3117,13 @@
     </row>
     <row r="26" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
         <v>1</v>
@@ -3142,13 +3132,13 @@
         <v>1302</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N26" t="s">
         <v>1</v>
@@ -3157,16 +3147,16 @@
         <v>2301</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="Q26" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R26" t="s">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T26">
         <v>1203</v>
@@ -3174,28 +3164,28 @@
     </row>
     <row r="27" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27">
         <v>1403</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M27" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N27" t="s">
         <v>1</v>
@@ -3204,13 +3194,13 @@
         <v>3301</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="Q27" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="S27" t="s">
         <v>1</v>
@@ -3221,28 +3211,28 @@
     </row>
     <row r="28" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>1302</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N28" t="s">
         <v>1</v>
@@ -3251,13 +3241,13 @@
         <v>4211</v>
       </c>
       <c r="P28" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="Q28" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="R28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="S28" t="s">
         <v>1</v>
@@ -3268,13 +3258,13 @@
     </row>
     <row r="29" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="I29" t="s">
         <v>1</v>
@@ -3283,13 +3273,13 @@
         <v>1313</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M29" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N29" t="s">
         <v>1</v>
@@ -3298,13 +3288,13 @@
         <v>4202</v>
       </c>
       <c r="P29" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="Q29" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="R29" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="S29" t="s">
         <v>1</v>
@@ -3315,28 +3305,28 @@
     </row>
     <row r="30" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>1313</v>
       </c>
       <c r="K30" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N30" t="s">
         <v>1</v>
@@ -3345,13 +3335,13 @@
         <v>1315</v>
       </c>
       <c r="P30" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="Q30" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="R30" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="S30" t="s">
         <v>1</v>
@@ -3362,31 +3352,31 @@
     </row>
     <row r="31" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O31">
         <v>1304</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="Q31" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="S31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31">
         <v>4206</v>
@@ -3394,31 +3384,31 @@
     </row>
     <row r="32" spans="6:25" x14ac:dyDescent="0.55000000000000004">
       <c r="K32" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O32">
         <v>1213</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="Q32" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="R32" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="S32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32">
         <v>1304</v>
@@ -3426,31 +3416,31 @@
     </row>
     <row r="33" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K33" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="L33" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O33">
         <v>4112</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="Q33" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="R33" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="S33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33">
         <v>2401</v>
@@ -3458,28 +3448,28 @@
     </row>
     <row r="34" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M34" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O34">
         <v>3301</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="Q34" t="s">
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S34" t="s">
         <v>1</v>
@@ -3490,28 +3480,28 @@
     </row>
     <row r="35" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="L35" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M35" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O35">
         <v>4211</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="Q35" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R35" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S35" t="s">
         <v>1</v>
@@ -3522,28 +3512,28 @@
     </row>
     <row r="36" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K36" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="M36" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O36">
         <v>4202</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="Q36" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R36" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S36" t="s">
         <v>1</v>
@@ -3554,28 +3544,28 @@
     </row>
     <row r="37" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K37" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M37" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="N37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O37">
         <v>1315</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="Q37" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="R37" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S37" t="s">
         <v>1</v>
@@ -3586,28 +3576,28 @@
     </row>
     <row r="38" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K38" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M38" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="N38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O38">
         <v>3301</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="Q38" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="R38" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S38" t="s">
         <v>1</v>
@@ -3618,13 +3608,13 @@
     </row>
     <row r="39" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K39" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="L39" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M39" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="N39" t="s">
         <v>1</v>
@@ -3633,13 +3623,13 @@
         <v>4206</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="Q39" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="R39" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S39" t="s">
         <v>1</v>
@@ -3650,28 +3640,28 @@
     </row>
     <row r="40" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K40" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M40" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="N40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O40">
         <v>4206</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="Q40" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="R40" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S40" t="s">
         <v>1</v>
@@ -3682,28 +3672,28 @@
     </row>
     <row r="41" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K41" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="L41" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="M41" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="N41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O41">
         <v>4111</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="Q41" t="s">
+        <v>91</v>
+      </c>
+      <c r="R41" t="s">
         <v>107</v>
-      </c>
-      <c r="R41" t="s">
-        <v>124</v>
       </c>
       <c r="S41" t="s">
         <v>1</v>
@@ -3714,31 +3704,31 @@
     </row>
     <row r="42" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K42" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="L42" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M42" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="N42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O42">
         <v>4201</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="Q42" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="R42" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42">
         <v>1403</v>
@@ -3746,31 +3736,31 @@
     </row>
     <row r="43" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K43" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="L43" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="M43" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="N43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O43">
         <v>4203</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="Q43" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="R43" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43">
         <v>1201</v>
@@ -3778,16 +3768,16 @@
     </row>
     <row r="44" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P44" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="Q44" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R44" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44">
         <v>1301</v>
@@ -3795,16 +3785,16 @@
     </row>
     <row r="45" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P45" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="Q45" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="R45" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45">
         <v>2412</v>
@@ -3812,16 +3802,16 @@
     </row>
     <row r="46" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P46" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="Q46" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="R46" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46">
         <v>4201</v>
@@ -3829,16 +3819,16 @@
     </row>
     <row r="47" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P47" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="Q47" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="R47" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T47">
         <v>2413</v>
@@ -3849,13 +3839,13 @@
         <v>249</v>
       </c>
       <c r="Q48" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="R48" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48">
         <v>2411</v>
@@ -3866,13 +3856,13 @@
         <v>250</v>
       </c>
       <c r="Q49" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R49" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49">
         <v>4111</v>
@@ -3880,16 +3870,16 @@
     </row>
     <row r="50" spans="16:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P50" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="Q50" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="R50" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50">
         <v>2301</v>
@@ -3897,16 +3887,16 @@
     </row>
     <row r="51" spans="16:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q51" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="R51" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="S51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51">
         <v>3301</v>

--- a/app/Http/Python/excel/Thursday.xlsx
+++ b/app/Http/Python/excel/Thursday.xlsx
@@ -631,259 +631,259 @@
     <t>EnglIsh through Drama</t>
   </si>
   <si>
-    <t>基礎演習II(鈴木)</t>
-  </si>
-  <si>
-    <t>情報演習・基礎(国際・児童)</t>
-  </si>
-  <si>
-    <t>基礎演習I(大沼)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">情報演習・基礎(国際・児童) </t>
-  </si>
-  <si>
-    <t>基礎演習I(謝)</t>
-  </si>
-  <si>
-    <t>基礎演習I(呉)</t>
-  </si>
-  <si>
-    <t>情報総合I(英語・国際・児童)</t>
-  </si>
-  <si>
-    <t>経済学概論IA(経済学入門IA)</t>
-  </si>
-  <si>
-    <t>基礎演習I(張)</t>
-  </si>
-  <si>
-    <t>経済学概論IB(経済学入門IB)</t>
-  </si>
-  <si>
-    <t>基礎演習I(西舘)</t>
-  </si>
-  <si>
-    <t>日本語ライティング(日本語V)</t>
-  </si>
-  <si>
-    <t>基礎演習I(鈴木)</t>
-  </si>
-  <si>
-    <t>基礎演習I(岡井)</t>
-  </si>
-  <si>
-    <t>基礎演習I(大嶋)</t>
-  </si>
-  <si>
-    <t>米文学論(米文学)</t>
-  </si>
-  <si>
-    <t>基礎演習I(奥田)</t>
-  </si>
-  <si>
-    <t>経済学概論IIA(経済学入門IIA)</t>
-  </si>
-  <si>
-    <t>基礎演習I(松本)</t>
-  </si>
-  <si>
-    <t>経済学概論IIB(経済学入門IIB)</t>
-  </si>
-  <si>
-    <t>基礎演習I(野口)</t>
-  </si>
-  <si>
-    <t>日本語会話(日本語VI)</t>
-  </si>
-  <si>
-    <t>TOEIC LIstenIng IA(英語のみ)</t>
-  </si>
-  <si>
-    <t>基礎演習II(大沼)</t>
-  </si>
-  <si>
-    <t>基礎演習II(謝)</t>
-  </si>
-  <si>
-    <t>卒業研究(大森)</t>
-  </si>
-  <si>
-    <t>基礎演習II(呉)</t>
-  </si>
-  <si>
-    <t>卒業研究(杉沢)</t>
-  </si>
-  <si>
-    <t>基礎演習II(張)</t>
-  </si>
-  <si>
-    <t>卒業研究(平田)</t>
-  </si>
-  <si>
-    <t>教育相談論(初等)</t>
-  </si>
-  <si>
-    <t>基礎演習II(西舘)</t>
-  </si>
-  <si>
-    <t>卒業研究(兼本)</t>
-  </si>
-  <si>
-    <t>TOEIC LIstenIng IIA(英語のみ)</t>
-  </si>
-  <si>
-    <t>卒業研究(小柏)</t>
-  </si>
-  <si>
-    <t>基礎演習II(岡井)</t>
-  </si>
-  <si>
-    <t>卒業研究(神宮)</t>
-  </si>
-  <si>
-    <t>基礎演習II(大嶋)</t>
-  </si>
-  <si>
-    <t>卒業研究(村山)</t>
-  </si>
-  <si>
-    <t>基礎演習II(奥田)</t>
-  </si>
-  <si>
-    <t>卒業研究(西川)</t>
-  </si>
-  <si>
-    <t>CALL IIIA(英語のみ)</t>
-  </si>
-  <si>
-    <t>TourIsm EnglIsh I(英語のみ)</t>
-  </si>
-  <si>
-    <t>基礎演習II(松本)</t>
-  </si>
-  <si>
-    <t>卒業研究(ﾃﾞﾛｰｼﾞｪ)</t>
-  </si>
-  <si>
-    <t>基礎演習II(野口)</t>
-  </si>
-  <si>
-    <t>卒業研究(竹内)</t>
-  </si>
-  <si>
-    <t>RemedIal Grammar(英語のみ)</t>
-  </si>
-  <si>
-    <t>CALL IVA(英語のみ)</t>
-  </si>
-  <si>
-    <t>課題演習I(大嶋)</t>
-  </si>
-  <si>
-    <t>課題演習I(張)</t>
-  </si>
-  <si>
-    <t>Advanced ReadIng IB(英語のみ)</t>
-  </si>
-  <si>
-    <t>課題演習I(後藤)</t>
-  </si>
-  <si>
-    <t>Advanced ReadIng IIB(英語のみ)</t>
-  </si>
-  <si>
-    <t>課題演習I(岸)</t>
-  </si>
-  <si>
-    <t>教育と人間「教育原理I」(中等)</t>
-  </si>
-  <si>
-    <t>TourIsm EnglIsh II(英語のみ)</t>
-  </si>
-  <si>
-    <t>教育と社会「教育原理II」(中等)</t>
-  </si>
-  <si>
-    <t>課題演習II(大嶋)</t>
-  </si>
-  <si>
-    <t>CALL IIIB(英語のみ)</t>
-  </si>
-  <si>
-    <t>課題演習II(張)</t>
-  </si>
-  <si>
-    <t>課題演習I(兼本)</t>
-  </si>
-  <si>
-    <t>課題演習II(後藤)</t>
-  </si>
-  <si>
-    <t>課題演習I(杉沢)</t>
-  </si>
-  <si>
-    <t>課題演習II(岸)</t>
-  </si>
-  <si>
-    <t>課題演習I(平田)</t>
-  </si>
-  <si>
-    <t>卒業研究(大嶋)(前期のみ)</t>
-  </si>
-  <si>
-    <t>課題演習I(村山)</t>
-  </si>
-  <si>
-    <t>Advanced LIstenIng IB(英語のみ)</t>
-  </si>
-  <si>
-    <t>課題演習I(小柏)</t>
-  </si>
-  <si>
-    <t>Advanced LIstenIng IIB(英語のみ)</t>
-  </si>
-  <si>
-    <t>課題演習I(神宮)</t>
-  </si>
-  <si>
-    <t>卒業研究(大沼)</t>
-  </si>
-  <si>
-    <t>課題演習I(西川)</t>
-  </si>
-  <si>
-    <t>卒業研究(呉)</t>
-  </si>
-  <si>
-    <t>CALL IVB(英語のみ)</t>
-  </si>
-  <si>
-    <t>卒業研究(西舘)</t>
-  </si>
-  <si>
-    <t>特別活動・学級経営論(中等)</t>
-  </si>
-  <si>
-    <t>課題演習II(兼本)</t>
-  </si>
-  <si>
-    <t>課題演習II(杉沢)</t>
-  </si>
-  <si>
-    <t>課題演習II(平田)</t>
-  </si>
-  <si>
-    <t>課題演習II(村山)</t>
-  </si>
-  <si>
-    <t>課題演習II(小柏)</t>
-  </si>
-  <si>
-    <t>課題演習II(神宮)</t>
-  </si>
-  <si>
-    <t>課題演習II(西川)</t>
+    <t>情報演習・基礎（国際・児童）</t>
+  </si>
+  <si>
+    <t>基礎演習I（大沼）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情報演習・基礎（国際・児童） </t>
+  </si>
+  <si>
+    <t>基礎演習I（謝）</t>
+  </si>
+  <si>
+    <t>基礎演習I（呉）</t>
+  </si>
+  <si>
+    <t>情報総合I（英語・国際・児童）</t>
+  </si>
+  <si>
+    <t>経済学概論IA（経済学入門IA）</t>
+  </si>
+  <si>
+    <t>基礎演習I（張）</t>
+  </si>
+  <si>
+    <t>経済学概論IB（経済学入門IB）</t>
+  </si>
+  <si>
+    <t>基礎演習I（西舘）</t>
+  </si>
+  <si>
+    <t>日本語ライティング（日本語V）</t>
+  </si>
+  <si>
+    <t>基礎演習I（鈴木）</t>
+  </si>
+  <si>
+    <t>基礎演習I（岡井）</t>
+  </si>
+  <si>
+    <t>基礎演習I（大嶋）</t>
+  </si>
+  <si>
+    <t>米文学論（米文学）</t>
+  </si>
+  <si>
+    <t>基礎演習I（奥田）</t>
+  </si>
+  <si>
+    <t>経済学概論IIA（経済学入門IIA）</t>
+  </si>
+  <si>
+    <t>基礎演習I（松本）</t>
+  </si>
+  <si>
+    <t>経済学概論IIB（経済学入門IIB）</t>
+  </si>
+  <si>
+    <t>基礎演習I（野口）</t>
+  </si>
+  <si>
+    <t>日本語会話（日本語VI）</t>
+  </si>
+  <si>
+    <t>TOEIC LIstenIng IA（英語のみ）</t>
+  </si>
+  <si>
+    <t>基礎演習II（大沼）</t>
+  </si>
+  <si>
+    <t>基礎演習II（謝）</t>
+  </si>
+  <si>
+    <t>卒業研究（大森）</t>
+  </si>
+  <si>
+    <t>基礎演習II（呉）</t>
+  </si>
+  <si>
+    <t>卒業研究（杉沢）</t>
+  </si>
+  <si>
+    <t>基礎演習II（張）</t>
+  </si>
+  <si>
+    <t>卒業研究（平田）</t>
+  </si>
+  <si>
+    <t>教育相談論（初等）</t>
+  </si>
+  <si>
+    <t>基礎演習II（西舘）</t>
+  </si>
+  <si>
+    <t>卒業研究（兼本）</t>
+  </si>
+  <si>
+    <t>TOEIC LIstenIng IIA（英語のみ）</t>
+  </si>
+  <si>
+    <t>基礎演習II（鈴木）</t>
+  </si>
+  <si>
+    <t>卒業研究（小柏）</t>
+  </si>
+  <si>
+    <t>基礎演習II（岡井）</t>
+  </si>
+  <si>
+    <t>卒業研究（神宮）</t>
+  </si>
+  <si>
+    <t>基礎演習II（大嶋）</t>
+  </si>
+  <si>
+    <t>卒業研究（村山）</t>
+  </si>
+  <si>
+    <t>基礎演習II（奥田）</t>
+  </si>
+  <si>
+    <t>卒業研究（西川）</t>
+  </si>
+  <si>
+    <t>CALL IIIA（英語のみ）</t>
+  </si>
+  <si>
+    <t>TourIsm EnglIsh I（英語のみ）</t>
+  </si>
+  <si>
+    <t>基礎演習II（松本）</t>
+  </si>
+  <si>
+    <t>卒業研究（ﾃﾞﾛｰｼﾞｪ）</t>
+  </si>
+  <si>
+    <t>基礎演習II（野口）</t>
+  </si>
+  <si>
+    <t>卒業研究（竹内）</t>
+  </si>
+  <si>
+    <t>RemedIal Grammar（英語のみ）</t>
+  </si>
+  <si>
+    <t>CALL IVA（英語のみ）</t>
+  </si>
+  <si>
+    <t>課題演習I（大嶋）</t>
+  </si>
+  <si>
+    <t>課題演習I（張）</t>
+  </si>
+  <si>
+    <t>Advanced ReadIng IB（英語のみ）</t>
+  </si>
+  <si>
+    <t>課題演習I（後藤）</t>
+  </si>
+  <si>
+    <t>Advanced ReadIng IIB（英語のみ）</t>
+  </si>
+  <si>
+    <t>課題演習I（岸）</t>
+  </si>
+  <si>
+    <t>教育と人間「教育原理I」（中等）</t>
+  </si>
+  <si>
+    <t>TourIsm EnglIsh II（英語のみ）</t>
+  </si>
+  <si>
+    <t>教育と社会「教育原理II」（中等）</t>
+  </si>
+  <si>
+    <t>課題演習II（大嶋）</t>
+  </si>
+  <si>
+    <t>CALL IIIB（英語のみ）</t>
+  </si>
+  <si>
+    <t>課題演習II（張）</t>
+  </si>
+  <si>
+    <t>課題演習I（兼本）</t>
+  </si>
+  <si>
+    <t>課題演習II（後藤）</t>
+  </si>
+  <si>
+    <t>課題演習I（杉沢）</t>
+  </si>
+  <si>
+    <t>課題演習II（岸）</t>
+  </si>
+  <si>
+    <t>課題演習I（平田）</t>
+  </si>
+  <si>
+    <t>卒業研究（大嶋）（前期のみ）</t>
+  </si>
+  <si>
+    <t>課題演習I（村山）</t>
+  </si>
+  <si>
+    <t>Advanced LIstenIng IB（英語のみ）</t>
+  </si>
+  <si>
+    <t>課題演習I（小柏）</t>
+  </si>
+  <si>
+    <t>Advanced LIstenIng IIB（英語のみ）</t>
+  </si>
+  <si>
+    <t>課題演習I（神宮）</t>
+  </si>
+  <si>
+    <t>卒業研究（大沼）</t>
+  </si>
+  <si>
+    <t>課題演習I（西川）</t>
+  </si>
+  <si>
+    <t>卒業研究（呉）</t>
+  </si>
+  <si>
+    <t>CALL IVB（英語のみ）</t>
+  </si>
+  <si>
+    <t>卒業研究（西舘）</t>
+  </si>
+  <si>
+    <t>特別活動・学級経営論（中等）</t>
+  </si>
+  <si>
+    <t>課題演習II（兼本）</t>
+  </si>
+  <si>
+    <t>課題演習II（杉沢）</t>
+  </si>
+  <si>
+    <t>課題演習II（平田）</t>
+  </si>
+  <si>
+    <t>課題演習II（村山）</t>
+  </si>
+  <si>
+    <t>課題演習II（小柏）</t>
+  </si>
+  <si>
+    <t>課題演習II（神宮）</t>
+  </si>
+  <si>
+    <t>課題演習II（西川）</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="63" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -1419,7 +1419,7 @@
         <v>2413</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q2" t="s">
         <v>38</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>1201</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -1603,7 +1603,7 @@
         <v>2401</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q4" t="s">
         <v>41</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
@@ -1680,7 +1680,7 @@
         <v>3101</v>
       </c>
       <c r="K5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L5" t="s">
         <v>29</v>
@@ -1695,7 +1695,7 @@
         <v>1206</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q5" t="s">
         <v>55</v>
@@ -1772,7 +1772,7 @@
         <v>1303</v>
       </c>
       <c r="K6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L6" t="s">
         <v>31</v>
@@ -1787,7 +1787,7 @@
         <v>1101</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q6" t="s">
         <v>44</v>
@@ -1864,7 +1864,7 @@
         <v>1213</v>
       </c>
       <c r="K7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
@@ -1879,7 +1879,7 @@
         <v>1313</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q7" t="s">
         <v>46</v>
@@ -1971,7 +1971,7 @@
         <v>1302</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="s">
         <v>48</v>
@@ -2063,7 +2063,7 @@
         <v>2413</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q9" t="s">
         <v>50</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -2155,7 +2155,7 @@
         <v>1201</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q10" t="s">
         <v>51</v>
@@ -2202,7 +2202,7 @@
         <v>4203</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L11" t="s">
         <v>29</v>
@@ -2217,7 +2217,7 @@
         <v>1206</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q11" t="s">
         <v>53</v>
@@ -2264,7 +2264,7 @@
         <v>2413</v>
       </c>
       <c r="K12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L12" t="s">
         <v>31</v>
@@ -2279,7 +2279,7 @@
         <v>1101</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q12" t="s">
         <v>54</v>
@@ -2388,7 +2388,7 @@
         <v>2302</v>
       </c>
       <c r="K14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L14" t="s">
         <v>33</v>
@@ -2450,7 +2450,7 @@
         <v>2301</v>
       </c>
       <c r="K15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s">
         <v>90</v>
@@ -2465,7 +2465,7 @@
         <v>1303</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q15" t="s">
         <v>38</v>
@@ -2527,7 +2527,7 @@
         <v>3101</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q16" t="s">
         <v>39</v>
@@ -2542,7 +2542,7 @@
         <v>4204</v>
       </c>
       <c r="U16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V16" t="s">
         <v>77</v>
@@ -2589,7 +2589,7 @@
         <v>2302</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q17" t="s">
         <v>41</v>
@@ -2604,7 +2604,7 @@
         <v>4203</v>
       </c>
       <c r="U17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V17" t="s">
         <v>31</v>
@@ -2651,7 +2651,7 @@
         <v>1205</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q18" t="s">
         <v>55</v>
@@ -2666,7 +2666,7 @@
         <v>1312</v>
       </c>
       <c r="U18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V18" t="s">
         <v>120</v>
@@ -2698,7 +2698,7 @@
         <v>2413</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
         <v>52</v>
@@ -2713,7 +2713,7 @@
         <v>4204</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q19" t="s">
         <v>44</v>
@@ -2728,7 +2728,7 @@
         <v>1311</v>
       </c>
       <c r="U19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V19" t="s">
         <v>29</v>
@@ -2760,7 +2760,7 @@
         <v>4204</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
         <v>95</v>
@@ -2775,7 +2775,7 @@
         <v>1303</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="Q20" t="s">
         <v>46</v>
